--- a/biology/Zoologie/Cuivré_d'Anatolie/Cuivré_d'Anatolie.xlsx
+++ b/biology/Zoologie/Cuivré_d'Anatolie/Cuivré_d'Anatolie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cuivr%C3%A9_d%27Anatolie</t>
+          <t>Cuivré_d'Anatolie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lycaena thetis
 Le Cuivré d'Anatolie (Lycaena thetis) est une espèce d'insectes lépidoptères (papillons) de la famille des Lycaenidae et de la sous-famille des Lycaeninae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cuivr%C3%A9_d%27Anatolie</t>
+          <t>Cuivré_d'Anatolie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce Lycaena thetis a été décrite par Johann Christoph Friedrich Klug en 1834[1].
-Sous-espèces
-Lycaena thetis caudata
-Lycaena thetis hephetstos</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Lycaena thetis a été décrite par Johann Christoph Friedrich Klug en 1834.
+</t>
         </is>
       </c>
     </row>
@@ -527,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cuivr%C3%A9_d%27Anatolie</t>
+          <t>Cuivré_d'Anatolie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,13 +554,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Noms vernaculaires</t>
+          <t>Systématique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le Cuivré d'Anatolie se nomme Fiery Copper ou Golden Copper en anglais.
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Lycaena thetis caudata
+Lycaena thetis hephetstos</t>
         </is>
       </c>
     </row>
@@ -558,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cuivr%C3%A9_d%27Anatolie</t>
+          <t>Cuivré_d'Anatolie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,16 +591,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Imago
-Le Cuivré d'Anatolie est un petit papillon présentant un dimorphisme sexuel. Le dessus du mâle est cuivre avec une tache apicale marron, le dessus de la femelle est orangé orné de taches marron formant des rangées de lignes et avec une tache apicale brun clair.
-Le revers, d'un ton orange très clair est orné de points marron. L'appendice caudal en n2 est plus ou moins développé.
-Chenille et chrysalide
-Les œufs sont pondus sur la plante hôte comme celles du genre Acantholimon.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Cuivré d'Anatolie se nomme Fiery Copper ou Golden Copper en anglais.
 </t>
         </is>
       </c>
@@ -593,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cuivr%C3%A9_d%27Anatolie</t>
+          <t>Cuivré_d'Anatolie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,16 +624,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole en une génération, en juillet août.
-La jeune chenille hiverne sur la plante hôte[1].
-Plantes-hôtes
-Sa plante-hôte est Acantholimon androsaceum[1].
+          <t>Imago</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Cuivré d'Anatolie est un petit papillon présentant un dimorphisme sexuel. Le dessus du mâle est cuivre avec une tache apicale marron, le dessus de la femelle est orangé orné de taches marron formant des rangées de lignes et avec une tache apicale brun clair.
+Le revers, d'un ton orange très clair est orné de points marron. L'appendice caudal en n2 est plus ou moins développé.
 </t>
         </is>
       </c>
@@ -628,7 +647,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cuivr%C3%A9_d%27Anatolie</t>
+          <t>Cuivré_d'Anatolie</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,16 +662,200 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille et chrysalide</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les œufs sont pondus sur la plante hôte comme celles du genre Acantholimon.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cuivré_d'Anatolie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuivr%C3%A9_d%27Anatolie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en une génération, en juillet août.
+La jeune chenille hiverne sur la plante hôte.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cuivré_d'Anatolie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuivr%C3%A9_d%27Anatolie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes-hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa plante-hôte est Acantholimon androsaceum.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cuivré_d'Anatolie</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuivr%C3%A9_d%27Anatolie</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est présent dans le sud de la Grèce, en Asie mineure, Arménie, Irak et Iran.
-Biotope
-C'est un lépidoptère des milieux secs et rocheux.
-Protection
-Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cuivré_d'Anatolie</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuivr%C3%A9_d%27Anatolie</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un lépidoptère des milieux secs et rocheux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cuivré_d'Anatolie</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuivr%C3%A9_d%27Anatolie</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
